--- a/1_excel_Source/Doctor.xlsx
+++ b/1_excel_Source/Doctor.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faisa\OneDrive\Documents\Hospital_CAI\Source\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F28D2B1-0F98-403A-A8F9-824EDF010F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{90F7F0BD-DE89-4433-B1CF-7611AB4BAB1F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -494,8 +488,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,7 +580,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -638,7 +632,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -852,31 +846,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0634226B-9DC8-458C-AF1B-610DAAC1D7F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
-    <col min="8" max="8" width="8.77734375" customWidth="1"/>
-    <col min="9" max="9" width="22.77734375" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" customWidth="1"/>
+    <col min="3" max="3" width="21.796875" customWidth="1"/>
+    <col min="4" max="4" width="19.19921875" customWidth="1"/>
+    <col min="8" max="8" width="8.796875" customWidth="1"/>
+    <col min="9" max="9" width="22.796875" customWidth="1"/>
+    <col min="10" max="10" width="8.796875" customWidth="1"/>
+    <col min="11" max="11" width="30.09765625" customWidth="1"/>
+    <col min="12" max="12" width="41.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -917,7 +913,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -958,7 +954,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -999,7 +995,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1040,7 +1036,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1081,7 +1077,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1112,14 +1108,14 @@
       <c r="J6" t="s">
         <v>62</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>63</v>
       </c>
       <c r="M6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -1150,14 +1146,14 @@
       <c r="J7" t="s">
         <v>70</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>71</v>
       </c>
       <c r="M7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -1198,7 +1194,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -1229,14 +1225,14 @@
       <c r="J9" t="s">
         <v>86</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>87</v>
       </c>
       <c r="M9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>88</v>
       </c>
@@ -1267,14 +1263,14 @@
       <c r="J10" t="s">
         <v>94</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>95</v>
       </c>
       <c r="M10" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -1305,14 +1301,14 @@
       <c r="J11" t="s">
         <v>54</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>101</v>
       </c>
       <c r="M11" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -1353,7 +1349,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -1394,7 +1390,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>114</v>
       </c>
@@ -1435,7 +1431,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -1466,14 +1462,14 @@
       <c r="J15" t="s">
         <v>54</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>125</v>
       </c>
       <c r="M15" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>126</v>
       </c>
